--- a/export/materias.xlsx
+++ b/export/materias.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,9 @@
       <c r="G1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -450,28 +453,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fundamentos de Sistemas Operacionais</t>
+          <t>rfr</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C:/Users/felip/OneDrive/Documentos/Universidade Paulista - UNIP/Matérias de 2026/Fevereiro/Fundamentos de Sistemas Operacionais</t>
+          <t>C:/Users/felip/OneDrive/Documentos/Universidade Paulista - UNIP/Matérias de 2024/Outubro/Linguagem e Técnicas de Programação</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>fevereiro</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
+          <t>janeiro</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -479,7 +485,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lógica</t>
+          <t>Fundamentos de Sistemas Operacionais</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -490,7 +496,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C:/Users/felip/OneDrive/Documentos/Universidade Paulista - UNIP/Matérias de 2026/Fevereiro/Lógica</t>
+          <t>C:/Users/felip/OneDrive/Documentos/Universidade Paulista - UNIP/Matérias de 2026/Fevereiro/Fundamentos de Sistemas Operacionais</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -498,9 +504,12 @@
           <t>fevereiro</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
